--- a/biology/Botanique/Olea_laxiflora/Olea_laxiflora.xlsx
+++ b/biology/Botanique/Olea_laxiflora/Olea_laxiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea laxiflora H. L. Li est un végétal appartenant au genre Olea (en langue chinoise translittérée : shu hua mu xi lan). C'est une espèce qui pousse en Chine.
 </t>
@@ -513,13 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Appareil végétatif
-Ce sont des buissons touffus ou de petits arbres de 2,5 m de haut. Les petites branches sont allongées-cylindriques.
-Le pétiole mesure 1 à 1,5 cm. Le limbe des feuilles est  elliptique-oblong, de 9 à 13 par 2,5 à 4 cm, coriaces, densément tachetées avec des écailles peltées, la base cunéiforme, la marge entière, le sommet est caudato-acuminé avec un acumen de 2 cm. Les nervures primaires sont au nombre de 8 à 12 de part et d'autre de la nervure centrale, un peu déprimée abaxialement, saillante adaxialement[1].
-Appareil reproducteur
-Les inflorescences sont des panicules axillaires, les fleurs staminées sont fines, 4 à 7 cm avec un pédicelle de 6 à 10 mm. Le calice mesure 1 à 1,5 mm, les lobes sont ciliés, la corolle est blanche, de 3 à 3,5 mm, les lobes ovales-orbiculaires de 1 mm. Les fleurs bisexuées et les fruits n'ont pas été vus[2]. La floraison est en novembre.
-Répartition géographique
-Chine : Yunnan. Bois mixtes, entre 1600 à 2200 m.</t>
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des buissons touffus ou de petits arbres de 2,5 m de haut. Les petites branches sont allongées-cylindriques.
+Le pétiole mesure 1 à 1,5 cm. Le limbe des feuilles est  elliptique-oblong, de 9 à 13 par 2,5 à 4 cm, coriaces, densément tachetées avec des écailles peltées, la base cunéiforme, la marge entière, le sommet est caudato-acuminé avec un acumen de 2 cm. Les nervures primaires sont au nombre de 8 à 12 de part et d'autre de la nervure centrale, un peu déprimée abaxialement, saillante adaxialement.
+</t>
         </is>
       </c>
     </row>
@@ -544,10 +558,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Taxonomie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont des panicules axillaires, les fleurs staminées sont fines, 4 à 7 cm avec un pédicelle de 6 à 10 mm. Le calice mesure 1 à 1,5 mm, les lobes sont ciliés, la corolle est blanche, de 3 à 3,5 mm, les lobes ovales-orbiculaires de 1 mm. Les fleurs bisexuées et les fruits n'ont pas été vus. La floraison est en novembre.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,13 +595,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Utilisations</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbuste décoratif. Cette espèce intéresse les créateurs de bonsaïs[3].
-</t>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chine : Yunnan. Bois mixtes, entre 1600 à 2200 m.</t>
         </is>
       </c>
     </row>
@@ -601,10 +631,73 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olea_laxiflora</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_laxiflora</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbuste décoratif. Cette espèce intéresse les créateurs de bonsaïs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Olea_laxiflora</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_laxiflora</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
